--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_equalweightpool.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_equalweightpool.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Row</t>
   </si>
@@ -166,6 +166,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -241,63 +307,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.64453125" customWidth="true"/>
+    <col min="2" max="2" width="14.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.64453125" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.64453125" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="16.24609375" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0">
-        <v>0.32558274931778852</v>
+        <v>0.32597334089057517</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -329,317 +395,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31905067824227362</v>
+        <v>0.3193301621272055</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.012263480129721199</v>
+        <v>-0.012337167938514635</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.001375593202391074</v>
+        <v>-0.0014036854524676642</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00073145854108176993</v>
+        <v>-0.00075180152007677783</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0061517900222095362</v>
+        <v>0.0061603422351591336</v>
       </c>
       <c r="H3" s="0">
-        <v>-8.4531090792470988e-05</v>
+        <v>-8.4417792598346833e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00015661713797854925</v>
+        <v>-0.00015427122639669755</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0019278190042406607</v>
+        <v>0.0019278229315254358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31561978342878383</v>
+        <v>0.31571849691517928</v>
       </c>
       <c r="C4" s="0">
-        <v>0.003447615894380353</v>
+        <v>0.003235092002986602</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0018059408865302826</v>
+        <v>0.0017923343054411292</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0005037584040107954</v>
+        <v>-0.00050280282312234871</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00025642968151182096</v>
+        <v>0.00025628233175732922</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0075974436813031768</v>
+        <v>-0.0075751720496383219</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.00058676690256669495</v>
+        <v>-0.00056448147966979534</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00025291228803164811</v>
+        <v>-0.00025291749978079148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33236763214493081</v>
+        <v>0.33335004370190696</v>
       </c>
       <c r="C5" s="0">
-        <v>0.055206087047870389</v>
+        <v>0.056624374257614192</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.024400293068233041</v>
+        <v>-0.02482149514764875</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0010245797075419314</v>
+        <v>-0.0010734609615173803</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0036731340774735092</v>
+        <v>0.0035902130329755707</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.017430704318774703</v>
+        <v>-0.017418022325315783</v>
       </c>
       <c r="H5" s="0">
-        <v>0.00038775450234459743</v>
+        <v>0.00038853662871200654</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0014235565836747031</v>
+        <v>-0.0014185947390150996</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0017600067666828645</v>
+        <v>0.0017599960409229176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0">
-        <v>0.47698024233668646</v>
+        <v>0.47769237044870111</v>
       </c>
       <c r="C6" s="0">
-        <v>0.16476908468622631</v>
+        <v>0.16471705449482688</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.023310089916143507</v>
+        <v>-0.023287466424113942</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0014631065331760778</v>
+        <v>0.0014690884455583557</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0021126033299446807</v>
+        <v>0.0021334707772616853</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0035355642594148491</v>
+        <v>-0.0038032730234940746</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0031134698179668963</v>
+        <v>0.003113452476755374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0">
-        <v>0.45392153160175636</v>
+        <v>0.45382298216229949</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0048621824463945867</v>
+        <v>-0.0054055169294049063</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0026696708628317</v>
+        <v>-0.0027689209276079729</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.034575066188661789</v>
+        <v>-0.034754268461202997</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0081261600712357503</v>
+        <v>0.0081443170497448435</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0012737869170312466</v>
+        <v>0.0012667294294671093</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0096482617746910249</v>
+        <v>0.0096482715526022833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B8" s="0">
-        <v>0.19732645659619738</v>
+        <v>0.19866587673416619</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.23456192098279113</v>
+        <v>-0.23338102467711583</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0069258015987896946</v>
+        <v>0.0068939808190662099</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0012065222364519824</v>
+        <v>-0.0012082641315520168</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00015395033148538054</v>
+        <v>-0.00015410743759165094</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.029353608553246931</v>
+        <v>-0.029062852931927896</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0017551254996266974</v>
+        <v>0.0017551629309878192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0011638367595971524</v>
+        <v>0.0016694545890554244</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.11452106830170898</v>
+        <v>-0.11504412405037244</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0098494229490596712</v>
+        <v>-0.0098654332617192121</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.062220738387886963</v>
+        <v>-0.062520000946650403</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0086729892906098529</v>
+        <v>-0.0086608485972064966</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0019530789388770805</v>
+        <v>-0.0019603956235633812</v>
       </c>
       <c r="I9" s="0">
-        <v>0.001250737254945221</v>
+        <v>0.0012504328148050462</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00019605922340287796</v>
+        <v>-0.0001960524804038577</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0">
-        <v>0.20418175751164205</v>
+        <v>0.21069182920646412</v>
       </c>
       <c r="C10" s="0">
-        <v>0.22455978098566176</v>
+        <v>0.23076521584512011</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.00053435130722435692</v>
+        <v>0.00055487439112704168</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00018090853311286356</v>
+        <v>-0.00018800717844652466</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00054011430855062099</v>
+        <v>-0.00054023714134131349</v>
       </c>
       <c r="I10" s="0">
-        <v>0.021710124257271046</v>
+        <v>0.021538945938069216</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.043867823248878633</v>
+        <v>-0.043910968762766088</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0008025102924299522</v>
+        <v>0.00080255152564627399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0">
-        <v>0.4452051740252882</v>
+        <v>0.45127089862106035</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.19842436338843686</v>
+        <v>0.1977799273198689</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0039689179094527724</v>
+        <v>-0.0038933067764805878</v>
       </c>
       <c r="F11" s="0">
-        <v>0.049866386849631912</v>
+        <v>0.049910028215586134</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.018378915852285082</v>
+        <v>-0.018329802203387209</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0021981691935930052</v>
+        <v>-0.002195613352215004</v>
       </c>
       <c r="I11" s="0">
-        <v>0.051605571161496229</v>
+        <v>0.051634715884700332</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.034326901930588016</v>
+        <v>-0.034326879673476224</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.28075487057573084</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.1062466562645209</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.00040792015852917426</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.00051154816404121726</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00035953275351023882</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.033362987295079173</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.029627383409648655</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_equalweightpool.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_equalweightpool.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Row</t>
   </si>
@@ -232,6 +232,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -307,14 +448,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="14.64453125" customWidth="true"/>
+    <col min="2" max="2" width="15.24609375" customWidth="true"/>
     <col min="3" max="3" width="14.64453125" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
@@ -325,45 +466,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B2" s="0">
-        <v>0.32597334089057517</v>
+        <v>0.3256679988954162</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -395,352 +536,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B3" s="0">
-        <v>0.3193301621272055</v>
+        <v>0.31897883633843688</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.012337167938514635</v>
+        <v>-0.012409555801613098</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0014036854524676642</v>
+        <v>-0.0013889124639050033</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00075180152007677783</v>
+        <v>-0.00075561368614405675</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0061603422351591336</v>
+        <v>0.0061705486567267343</v>
       </c>
       <c r="H3" s="0">
-        <v>-8.4417792598346833e-05</v>
+        <v>-8.6280818100206645e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00015427122639669755</v>
+        <v>-0.00014717207923001954</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0019278229315254358</v>
+        <v>0.0019278236352863742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31571849691517928</v>
+        <v>0.31654714533336037</v>
       </c>
       <c r="C4" s="0">
-        <v>0.003235092002986602</v>
+        <v>0.0042801725555008515</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0017923343054411292</v>
+        <v>0.001792951509730486</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00050280282312234871</v>
+        <v>-0.00050411170298533142</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00025628233175732922</v>
+        <v>0.00024384457816790901</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0075751720496383219</v>
+        <v>-0.0074445613426930351</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.00056448147966979534</v>
+        <v>-0.00054703579459461794</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00025291749978079148</v>
+        <v>-0.00025295080820281202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33335004370190696</v>
+        <v>0.33281920312493213</v>
       </c>
       <c r="C5" s="0">
-        <v>0.056624374257614192</v>
+        <v>0.054893767141169843</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.02482149514764875</v>
+        <v>-0.024430326007269468</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0010734609615173803</v>
+        <v>-0.0010225940549628393</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0035902130329755707</v>
+        <v>0.0035441881592604002</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.017418022325315783</v>
+        <v>-0.01744878019447918</v>
       </c>
       <c r="H5" s="0">
-        <v>0.00038853662871200654</v>
+        <v>0.00038131664860785583</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0014185947390150996</v>
+        <v>-0.0014055312948179942</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0017599960409229176</v>
+        <v>0.0017600173940631181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B6" s="0">
-        <v>0.47769237044870111</v>
+        <v>0.47971100480329593</v>
       </c>
       <c r="C6" s="0">
-        <v>0.16471705449482688</v>
+        <v>0.16746316083602844</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.023287466424113942</v>
+        <v>-0.023346613390682315</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0014690884455583557</v>
+        <v>0.0014722578946687465</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0021334707772616853</v>
+        <v>0.0021579540613954821</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0038032730234940746</v>
+        <v>-0.0039683885947203951</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.003113452476755374</v>
+        <v>0.0031134308716739834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B7" s="0">
-        <v>0.45382298216229949</v>
+        <v>0.45566903146286514</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0054055169294049063</v>
+        <v>-0.0055163776982003823</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0027689209276079729</v>
+        <v>-0.0029252640394991009</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.034754268461202997</v>
+        <v>-0.034671892500753629</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0081443170497448435</v>
+        <v>0.0081626479514204636</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0012667294294671093</v>
+        <v>0.0012606461921867518</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0096482715526022833</v>
+        <v>0.0096482667544150469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B8" s="0">
-        <v>0.19866587673416619</v>
+        <v>0.18831091742891157</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.23338102467711583</v>
+        <v>-0.24592490683229634</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0068939808190662099</v>
+        <v>0.0069402295331570879</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0012082641315520168</v>
+        <v>-0.0012076538555717815</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00015410743759165094</v>
+        <v>-0.00014929144533499015</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.029062852931927896</v>
+        <v>-0.028771706596470298</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0017551629309878192</v>
+        <v>0.0017552151625629397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0016694545890554244</v>
+        <v>-0.0076480774524672977</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.11504412405037244</v>
+        <v>-0.11381423186453357</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0098654332617192121</v>
+        <v>-0.009906800372432684</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.062520000946650403</v>
+        <v>-0.062689051420320219</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0086608485972064966</v>
+        <v>-0.0086365424464464914</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0019603956235633812</v>
+        <v>-0.0019710310491134852</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0012504328148050462</v>
+        <v>0.0012547460338189779</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.0001960524804038577</v>
+        <v>-0.00019608376235139002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B10" s="0">
-        <v>0.21069182920646412</v>
+        <v>0.20075475248937688</v>
       </c>
       <c r="C10" s="0">
-        <v>0.23076521584512011</v>
+        <v>0.22924159540316547</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.00055487439112704168</v>
+        <v>0.00051208493679391251</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00018800717844652466</v>
+        <v>-0.00015691431775736808</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00054023714134131349</v>
+        <v>-0.00054117249941086447</v>
       </c>
       <c r="I10" s="0">
-        <v>0.021538945938069216</v>
+        <v>0.021792754904065025</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.043910968762766088</v>
+        <v>-0.043248034009760954</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00080255152564627399</v>
+        <v>0.00080251552474893718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B11" s="0">
-        <v>0.45127089862106035</v>
+        <v>0.44721231819396184</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.1977799273198689</v>
+        <v>0.20039543725558337</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0038933067764805878</v>
+        <v>-0.0035449653649581919</v>
       </c>
       <c r="F11" s="0">
-        <v>0.049910028215586134</v>
+        <v>0.052115582999972383</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.018329802203387209</v>
+        <v>-0.018327739862208457</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.002195613352215004</v>
+        <v>-0.0021301972784652525</v>
       </c>
       <c r="I11" s="0">
-        <v>0.051634715884700332</v>
+        <v>0.052276375818136427</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.034326879673476224</v>
+        <v>-0.034326927863475076</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B12" s="0">
-        <v>0.28075487057573084</v>
+        <v>0.21168836206674399</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.1062466562645209</v>
+        <v>-0.13328783586751547</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.00040792015852917426</v>
+        <v>-0.00081680822759665499</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.00051154816404121726</v>
+        <v>-0.016934445419983048</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00035953275351023882</v>
+        <v>-0.010302482640810216</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.033362987295079173</v>
+        <v>-0.045134420190734527</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.029627383409648655</v>
+        <v>-0.029047963780578001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.24188334969281719</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.17758092206303355</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.067943275897086389</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.073995471915821995</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0031538921981418598</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0028950222978376054</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0007698073428892327</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.20275239091356453</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.14734741750020289</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.042854441590604454</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00085309819946410772</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0038161010803319821</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-0.00083913723085413388</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.045950051364147364</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00022310272721229318</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_equalweightpool.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_equalweightpool.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Row</t>
   </si>
@@ -373,6 +373,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -448,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -466,42 +541,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B2" s="0">
         <v>0.3256679988954162</v>
@@ -536,7 +611,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B3" s="0">
         <v>0.31897883633843688</v>
@@ -571,7 +646,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0">
         <v>0.31654714533336037</v>
@@ -606,7 +681,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B5" s="0">
         <v>0.33281920312493213</v>
@@ -641,7 +716,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0">
         <v>0.47971100480329593</v>
@@ -676,7 +751,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B7" s="0">
         <v>0.45566903146286514</v>
@@ -711,7 +786,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0">
         <v>0.18831091742891157</v>
@@ -746,7 +821,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B9" s="0">
         <v>-0.0076480774524672977</v>
@@ -781,7 +856,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B10" s="0">
         <v>0.20075475248937688</v>
@@ -816,7 +891,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B11" s="0">
         <v>0.44721231819396184</v>
@@ -851,7 +926,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B12" s="0">
         <v>0.21168836206674399</v>
@@ -886,7 +961,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B13" s="0">
         <v>0.24188334969281719</v>
@@ -921,37 +996,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B14" s="0">
-        <v>0.14734741750020289</v>
+        <v>0.15226448856664002</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.042854441590604454</v>
+        <v>-0.028626076925361996</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00085309819946410772</v>
+        <v>-0.0007255253492118132</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0038161010803319821</v>
+        <v>-0.0046318943850385636</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.00083913723085413388</v>
+        <v>-0.007047089432116271</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.045950051364147364</v>
+        <v>-0.041104218935744945</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00022310272721229318</v>
+        <v>-0.007484056098703562</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.3099283063888868</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.29719466849044851</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0075700334220448317</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.03088570640038282</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0011025217349804146</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.1894163211783968</v>
       </c>
     </row>
   </sheetData>
